--- a/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,37 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0,0; 22,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0; 12,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0; 8,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,01</t>
+          <t>0; 11,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,0; 8,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0; 5,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,32</t>
+          <t>0; 7,61</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +961,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,12</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,14</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,21</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,15</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,38</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>0; 1,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,73</t>
+          <t>0,33; 4,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,7</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,3</t>
+          <t>0,24; 2,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,27 +1111,27 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,45</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0; 1,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0; 1,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,58</t>
+          <t>0; 0,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,28; 3,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1251,27 +1251,27 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,67</t>
+          <t>0; 1,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0; 1,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0; 1,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>0; 1,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,75; 6,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,71</t>
+          <t>0,37; 3,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,35; 3,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,45</t>
+          <t>0,0; 25,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,58</t>
+          <t>0,0; 8,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,79</t>
+          <t>0,0; 6,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,01</t>
+          <t>0,33; 4,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,32</t>
+          <t>0,27; 2,59</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,67</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 5,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,71</t>
+          <t>0,28; 3,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,73</t>
+          <t>0,73; 6,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,7</t>
+          <t>0,4; 3,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,3</t>
+          <t>0,38; 3,29</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,1</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,61</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,46</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,37</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 2,11</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,2</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,95</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,42</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,49</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,62</t>
+          <t>0,63; 2,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,62</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,38</t>
+          <t>0,36; 1,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>0,08; 0,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,51</t>
+          <t>0,46; 1,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,65</t>
+          <t>0,0; 20,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,63</t>
+          <t>0,0; 8,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,97</t>
+          <t>0,0; 6,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,19 +914,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,84</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,17</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,24 +1049,24 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,59</t>
+          <t>0,24; 2,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,34</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 5,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,25</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,16</t>
+          <t>0,0; 5,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,73</t>
+          <t>0,28; 3,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,01</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,32</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,74</t>
+          <t>0,75; 6,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,53</t>
+          <t>0,39; 3,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,29</t>
+          <t>0,38; 3,36</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,61</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,11</t>
+          <t>0,32; 2,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,77</t>
+          <t>0,74; 2,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,66</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,34</t>
+          <t>0,34; 1,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,76</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,53</t>
+          <t>0,46; 1,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,82</t>
+          <t>0; 1,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0; 1,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 7,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,0; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 1,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0; 1,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0; 2,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,75</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0; 0,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>0; 1,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>0,35; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>0; 1,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>0; 1,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>0; 1,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,61</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,25; 2,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>0; 1,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>0; 1,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 4,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0; 0,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,28; 3,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,53</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,27 +1081,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,27 +1111,27 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 1,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,53</t>
+          <t>0; 1,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,74; 6,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,21</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>0; 1,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0; 1,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,72</t>
+          <t>0,37; 3,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,34; 3,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>0,32; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>0,73; 2,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,74</t>
+          <t>0,17; 1,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,54</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,73</t>
+          <t>0,34; 1,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,36</t>
+          <t>0,44; 1,59</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,25</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,44</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,04</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,36</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 2,84</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,56</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 1,53</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,68</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 1,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
